--- a/bikemaps_data.xlsx
+++ b/bikemaps_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\collisions\vancouver-collision-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{747941A0-77D9-4E32-8615-5359E02F2DBB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF61841-B7CE-4BB7-A23A-E6A165C2C640}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="2650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5304,7 +5304,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E11BC902-C538-4AFE-A004-6AC9FE5A026D}" name="Collisions5" displayName="Collisions5" ref="A1:N635" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E11BC902-C538-4AFE-A004-6AC9FE5A026D}" name="Collisions5" displayName="Collisions5" ref="A1:N635" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:N635" xr:uid="{791407F8-8C02-4F28-A58D-B804DDBC2694}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{52C1F7AE-1877-4460-BC45-E0EBF9FB312C}" name="i_type"/>
@@ -5319,15 +5319,15 @@
     <tableColumn id="11" xr3:uid="{212FFC12-578A-48DA-8148-87F02E264B7D}" name="sex"/>
     <tableColumn id="12" xr3:uid="{782CA512-C21A-43C1-AB08-BAA6867554B4}" name="longitude"/>
     <tableColumn id="13" xr3:uid="{727AC1C1-A377-425F-97BB-494022CF1BCD}" name="latitude"/>
-    <tableColumn id="4" xr3:uid="{2EF94402-AAE7-4AE7-A3AB-E1B269729148}" name="X" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{250F0B66-F9C6-4EC1-8F95-C200F3F97DED}" name="Y" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{2EF94402-AAE7-4AE7-A3AB-E1B269729148}" name="X" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{250F0B66-F9C6-4EC1-8F95-C200F3F97DED}" name="Y" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Hazards" displayName="Hazards" ref="A1:J188" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Hazards" displayName="Hazards" ref="A1:J188" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:J188" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="i_type"/>
@@ -5338,8 +5338,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="sex"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="longitude"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="latitude"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="X" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Y" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="X" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Y" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -31320,7 +31320,7 @@
   <dimension ref="A1:N635"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
-      <selection activeCell="I606" sqref="I606"/>
+      <selection activeCell="H597" sqref="H597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
